--- a/result/with_base/124/arousal/s13_9.xlsx
+++ b/result/with_base/124/arousal/s13_9.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8725000023841858</v>
+        <v>0.8152901828289032</v>
       </c>
       <c r="C2" t="n">
-        <v>41729.03125</v>
+        <v>11292.568359375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8523863662372936</v>
+        <v>0.8297006312538596</v>
       </c>
       <c r="E2" t="n">
-        <v>41731.07990056818</v>
+        <v>11292.49092371324</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8600000143051147</v>
+        <v>0.8610491156578064</v>
       </c>
       <c r="C3" t="n">
-        <v>40946.744140625</v>
+        <v>10989.1904296875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8885227225043557</v>
+        <v>0.8987657568034004</v>
       </c>
       <c r="E3" t="n">
-        <v>40945.51065340909</v>
+        <v>10987.80066636029</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8675000071525574</v>
+        <v>0.890625</v>
       </c>
       <c r="C4" t="n">
-        <v>40171.59765625</v>
+        <v>10690.59765625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9305681803009727</v>
+        <v>0.9138655452167287</v>
       </c>
       <c r="E4" t="n">
-        <v>40169.59339488636</v>
+        <v>10689.06623391544</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C5" t="n">
-        <v>39406.041015625</v>
+        <v>10395.6611328125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9373863664540377</v>
+        <v>0.9383534648839165</v>
       </c>
       <c r="E5" t="n">
-        <v>39403.69353693182</v>
+        <v>10393.92055376838</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.8911830484867096</v>
       </c>
       <c r="C6" t="n">
-        <v>38650.66796875</v>
+        <v>10106.59375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.945113637230613</v>
+        <v>0.9493172273916357</v>
       </c>
       <c r="E6" t="n">
-        <v>38649.07457386364</v>
+        <v>10104.7744140625</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.8861607015132904</v>
       </c>
       <c r="C7" t="n">
-        <v>37906.421875</v>
+        <v>9824.03759765625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9654545458880338</v>
+        <v>0.948660713784835</v>
       </c>
       <c r="E7" t="n">
-        <v>37904.76136363636</v>
+        <v>9822.437385110294</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C8" t="n">
-        <v>37175.0390625</v>
+        <v>9547.67822265625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9724999991330233</v>
+        <v>0.9682247884133283</v>
       </c>
       <c r="E8" t="n">
-        <v>37173.30610795454</v>
+        <v>9546.24551930147</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C9" t="n">
-        <v>36456.302734375</v>
+        <v>9278.3408203125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.967954548922452</v>
+        <v>0.964285713784835</v>
       </c>
       <c r="E9" t="n">
-        <v>36454.28622159091</v>
+        <v>9276.948988970587</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.93359375</v>
       </c>
       <c r="C10" t="n">
-        <v>35749.08984375</v>
+        <v>9014.89111328125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9761363701386885</v>
+        <v>0.9765625</v>
       </c>
       <c r="E10" t="n">
-        <v>35747.20419034091</v>
+        <v>9013.637178308823</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C11" t="n">
-        <v>35054.6640625</v>
+        <v>8758.40966796875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9770454601808027</v>
+        <v>0.9795824569814345</v>
       </c>
       <c r="E11" t="n">
-        <v>35053.08096590909</v>
+        <v>8757.196059283087</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34372.671875</v>
+        <v>8508.24560546875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9852272868156433</v>
+        <v>0.9776785724303302</v>
       </c>
       <c r="E12" t="n">
-        <v>34370.93430397727</v>
+        <v>8507.0654296875</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9375</v>
       </c>
       <c r="C13" t="n">
-        <v>33703.240234375</v>
+        <v>8264.447265625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9820454662496393</v>
+        <v>0.9790572489009184</v>
       </c>
       <c r="E13" t="n">
-        <v>33701.33451704546</v>
+        <v>8263.189223345587</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C14" t="n">
-        <v>33045.923828125</v>
+        <v>8026.45556640625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9778409220955588</v>
+        <v>0.984243697979871</v>
       </c>
       <c r="E14" t="n">
-        <v>33044.11825284091</v>
+        <v>8025.409524356618</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C15" t="n">
-        <v>32399.4736328125</v>
+        <v>7794.811279296875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9902272820472717</v>
+        <v>0.9869353981579051</v>
       </c>
       <c r="E15" t="n">
-        <v>32398.48508522727</v>
+        <v>7793.724092371323</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C16" t="n">
-        <v>31765.9990234375</v>
+        <v>7569.155029296875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9901136430827054</v>
+        <v>0.9832589275696698</v>
       </c>
       <c r="E16" t="n">
-        <v>31764.99520596591</v>
+        <v>7568.089786305147</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C17" t="n">
-        <v>31143.9072265625</v>
+        <v>7349.272216796875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9906818270683289</v>
+        <v>0.9873949569814345</v>
       </c>
       <c r="E17" t="n">
-        <v>31143.05060369318</v>
+        <v>7348.24258961397</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C18" t="n">
-        <v>30533.84375</v>
+        <v>7135.138427734375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9811363816261292</v>
+        <v>0.9889705882352942</v>
       </c>
       <c r="E18" t="n">
-        <v>30532.82830255682</v>
+        <v>7134.128561580882</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C19" t="n">
-        <v>29934.201171875</v>
+        <v>6926.701904296875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9903409101746299</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E19" t="n">
-        <v>29933.43412642046</v>
+        <v>6925.66299977022</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C20" t="n">
-        <v>29346.419921875</v>
+        <v>6723.65673828125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9902272820472717</v>
+        <v>0.9855567216873169</v>
       </c>
       <c r="E20" t="n">
-        <v>29345.36363636364</v>
+        <v>6722.668141084559</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.94140625</v>
       </c>
       <c r="C21" t="n">
-        <v>28768.6943359375</v>
+        <v>6525.99658203125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9906775215092827</v>
       </c>
       <c r="E21" t="n">
-        <v>28768.07688210227</v>
+        <v>6525.055376838235</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C22" t="n">
-        <v>28202.3359375</v>
+        <v>6333.53955078125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E22" t="n">
-        <v>28201.68288352273</v>
+        <v>6332.72616038603</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C23" t="n">
-        <v>27646.48046875</v>
+        <v>6146.292724609375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E23" t="n">
-        <v>27645.82350852273</v>
+        <v>6145.581485523897</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C24" t="n">
-        <v>27100.9912109375</v>
+        <v>5964.3017578125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E24" t="n">
-        <v>27100.23544034091</v>
+        <v>5963.474896599265</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9375</v>
       </c>
       <c r="C25" t="n">
-        <v>26565.880859375</v>
+        <v>5787.134033203125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E25" t="n">
-        <v>26564.97975852273</v>
+        <v>5786.279928768382</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9453125</v>
       </c>
       <c r="C26" t="n">
-        <v>26040.359375</v>
+        <v>5614.58837890625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E26" t="n">
-        <v>26039.74591619318</v>
+        <v>5613.837258731618</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C27" t="n">
-        <v>25524.89453125</v>
+        <v>5447.197509765625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9628413880572599</v>
       </c>
       <c r="E27" t="n">
-        <v>25524.17879971591</v>
+        <v>5446.330193014706</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C28" t="n">
-        <v>25019.1123046875</v>
+        <v>5283.625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9870667001780342</v>
       </c>
       <c r="E28" t="n">
-        <v>25018.466796875</v>
+        <v>5282.983226102941</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C29" t="n">
-        <v>24522.9072265625</v>
+        <v>5124.888916015625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9859506312538596</v>
       </c>
       <c r="E29" t="n">
-        <v>24522.10617897727</v>
+        <v>5124.321547564338</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9375</v>
       </c>
       <c r="C30" t="n">
-        <v>24035.6484375</v>
+        <v>4970.60546875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9805672273916357</v>
       </c>
       <c r="E30" t="n">
-        <v>24035.083984375</v>
+        <v>4969.99503102022</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9375</v>
       </c>
       <c r="C31" t="n">
-        <v>23558.4609375</v>
+        <v>4820.573486328125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9887500080195341</v>
+        <v>0.9816176470588235</v>
       </c>
       <c r="E31" t="n">
-        <v>23557.32563920454</v>
+        <v>4819.86083984375</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9034598171710968</v>
       </c>
       <c r="C32" t="n">
-        <v>23088.7431640625</v>
+        <v>4674.8076171875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9679621843730702</v>
       </c>
       <c r="E32" t="n">
-        <v>23088.34286221591</v>
+        <v>4674.008444393382</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C33" t="n">
-        <v>22628.9990234375</v>
+        <v>4532.672607421875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9710477941176471</v>
       </c>
       <c r="E33" t="n">
-        <v>22628.35848721591</v>
+        <v>4532.083697150735</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C34" t="n">
-        <v>22177.43359375</v>
+        <v>4394.43408203125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E34" t="n">
-        <v>22176.90980113636</v>
+        <v>4393.969180836397</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21734.7548828125</v>
+        <v>4260.33642578125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.987854515804964</v>
       </c>
       <c r="E35" t="n">
-        <v>21734.04048295454</v>
+        <v>4259.80233226103</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21299.82421875</v>
+        <v>4129.732177734375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E36" t="n">
-        <v>21299.47176846591</v>
+        <v>4129.326372931985</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C37" t="n">
-        <v>20873.62109375</v>
+        <v>4002.93408203125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E37" t="n">
-        <v>20873.16370738636</v>
+        <v>4002.494858685662</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C38" t="n">
-        <v>20455.24609375</v>
+        <v>3879.655151367188</v>
       </c>
       <c r="D38" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E38" t="n">
-        <v>20454.87233664773</v>
+        <v>3879.200669232537</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.94140625</v>
       </c>
       <c r="C39" t="n">
-        <v>20045.1220703125</v>
+        <v>3759.86865234375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E39" t="n">
-        <v>20044.47674005682</v>
+        <v>3759.378317440257</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9453125</v>
       </c>
       <c r="C40" t="n">
-        <v>19642.3349609375</v>
+        <v>3643.332397460938</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9882484253715066</v>
       </c>
       <c r="E40" t="n">
-        <v>19641.81906960227</v>
+        <v>3642.893353630515</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19247.87890625</v>
+        <v>3530.033325195312</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9914772781458768</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E41" t="n">
-        <v>19246.794921875</v>
+        <v>3529.671860638787</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C42" t="n">
-        <v>18859.41796875</v>
+        <v>3420.030029296875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E42" t="n">
-        <v>18859.19602272727</v>
+        <v>3419.660371668198</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C43" t="n">
-        <v>18479.287109375</v>
+        <v>3313.11962890625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9923844547832713</v>
       </c>
       <c r="E43" t="n">
-        <v>18478.99272017046</v>
+        <v>3312.753532858456</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C44" t="n">
-        <v>18106.302734375</v>
+        <v>3209.360473632812</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9796481097445768</v>
       </c>
       <c r="E44" t="n">
-        <v>18105.94779829546</v>
+        <v>3208.935575597427</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C45" t="n">
-        <v>17740.369140625</v>
+        <v>3108.296508789062</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9883797273916357</v>
       </c>
       <c r="E45" t="n">
-        <v>17739.95738636364</v>
+        <v>3107.98384363511</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C46" t="n">
-        <v>17381.28125</v>
+        <v>3010.224243164062</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E46" t="n">
-        <v>17380.90376420454</v>
+        <v>3009.925982306985</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9453125</v>
       </c>
       <c r="C47" t="n">
-        <v>17029.01953125</v>
+        <v>2914.96923828125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E47" t="n">
-        <v>17028.68288352273</v>
+        <v>2914.685360179228</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C48" t="n">
-        <v>16683.3330078125</v>
+        <v>2822.45654296875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E48" t="n">
-        <v>16683.08664772727</v>
+        <v>2822.176011029412</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C49" t="n">
-        <v>16344.37939453125</v>
+        <v>2732.528076171875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E49" t="n">
-        <v>16344.08442826705</v>
+        <v>2732.313174977022</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C50" t="n">
-        <v>16011.8974609375</v>
+        <v>2645.25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E50" t="n">
-        <v>16011.53382457386</v>
+        <v>2645.038818359375</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,894 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C51" t="n">
-        <v>15685.44970703125</v>
+        <v>2560.515380859375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E51" t="n">
-        <v>15685.25514914773</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15365.49658203125</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15365.23330965909</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15051.45703125</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15051.26997514205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14743.5263671875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14743.28560014205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14441.4453125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14441.15651633523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14144.95166015625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14144.78231534091</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13854.38671875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9970454573631287</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13854.07759232955</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13569.298828125</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13568.92294034091</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13289.35498046875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13289.20960582386</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13015.03759765625</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13014.86683238636</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12745.9033203125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12745.77308238636</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12482.111328125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12481.81312144886</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12223.07666015625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12222.91521661932</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11969.21923828125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11968.99387428977</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11720.265625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11719.96351207386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11475.84521484375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11475.69140625</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11236.26806640625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11236.14683948864</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11001.40087890625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11001.23694957386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10770.9794921875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10770.83371803977</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10545.00341796875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10544.87544389205</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10323.4765625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10323.31019176136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10106.1171875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10106.00958806818</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9893.1689453125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9892.940784801136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9684.1220703125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9683.983931107954</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9479.2802734375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9479.10653409091</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9278.41650390625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9278.204900568182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9081.30859375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9081.202769886364</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8888.1572265625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8888.047585227272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8698.79736328125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8698.679421164772</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8513.18310546875</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8513.011985085228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8331.1181640625</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8330.97469815341</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1724137931034483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3103448275862069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7586206896551724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.009478672985781991</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7586206896551724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.009478672985781991</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.04739336492890995</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.04739336492890995</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8275862068965517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.05213270142180094</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8275862068965517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.05213270142180094</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9310344827586207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1943127962085308</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9310344827586207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1943127962085308</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.3364928909952606</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.3364928909952606</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.974342212779866</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8199052132701422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8388625592417062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8436018957345972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8578199052132701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8672985781990521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9478672985781991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1724137931034483</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9478672985781991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1724137931034483</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.95260663507109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.95260663507109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.990521327014218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.990521327014218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9519529334858636</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2560.269516888787</v>
       </c>
     </row>
   </sheetData>
